--- a/tut05/output/0401EE25.xlsx
+++ b/tut05/output/0401EE25.xlsx
@@ -553,25 +553,25 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>8.159090909090908</v>
+        <v>8.16</v>
       </c>
       <c r="D6" t="n">
-        <v>8.565217391304348</v>
+        <v>8.57</v>
       </c>
       <c r="E6" t="n">
-        <v>8.173913043478262</v>
+        <v>8.17</v>
       </c>
       <c r="F6" t="n">
-        <v>8.615384615384615</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>8.725</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>8.627906976744185</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>8.842105263157896</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="7">
@@ -615,25 +615,25 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>8.075268817204302</v>
+        <v>8.08</v>
       </c>
       <c r="D8" t="n">
-        <v>8.237410071942445</v>
+        <v>8.24</v>
       </c>
       <c r="E8" t="n">
-        <v>8.221621621621622</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>8.290178571428571</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>8.356060606060606</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>8.39413680781759</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>8.443478260869565</v>
+        <v>8.44</v>
       </c>
     </row>
   </sheetData>
